--- a/va_facility_data_2025-02-20/Dothan 2 VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dothan%202%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dothan 2 VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dothan%202%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R290f3739869d44368b4fdeb3b77c9fdb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2de5e212a8b6443197d7be84ddc2352d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rce3d51af251740bfb927af92054ba7fe"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfda0e1aca74b453794f0afc1d361dfd2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8275774568f0448e9d15de03fb6ba079"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R79146bbcc5c544fbae843a6a3d22e3f3"/>
   </x:sheets>
 </x:workbook>
 </file>
